--- a/biology/Biologie cellulaire et moléculaire/Knock-in/Knock-in.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Knock-in/Knock-in.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le knock-in, en biologie moléculaire, est une variante du knock-out.
 Dans cette variante, mis à part une invalidation du gène cible, un gène d'intérêt est introduit dans le locus. Après recombinaison homologue, ce gène d'intérêt est placé sous le contrôle du promoteur et des séquences régulatrices du gène cible. Il est donc synthétisé à la place du gène cible.
@@ -514,7 +526,9 @@
           <t>Utilisations possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Suivi du devenir des cellules exprimant normalement le gène cible.
 Dans le cas de gènes apparentés ou ayant des similitudes au niveau de leurs séquences nucléotidique (comme certains promoteurs qui possèdent des séquences consensus !), afin de déterminer s'ils ont des fonctions similaires.</t>
